--- a/personas.xlsx
+++ b/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,111 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Elia Gonzales Castro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>eligonzalescastro27@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>944898588</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>27/01/2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tevis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tevis@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>987756123</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15/02/2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Scoot</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ninogonzalesramos@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>945789456</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>05/11/2006</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/personas.xlsx
+++ b/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,41 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>liz</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7456</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77845</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>31/03/2004</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>espirituvillart07@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
